--- a/sessions_data.xlsx
+++ b/sessions_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,6 +651,228 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4027d4a2-7b08-4bfd-90a3-442dcbb93058</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Atletismo, Badminton, Bocha, Canoagem velocidade, Ciclismo de estrada, Ciclismo de pista, Equestre, Judo, Levantamento de peso, Remo, Tiro, Voleibol paralimpico, Natação, Tenis de mesa, Taekwondo, Triatlo, Basquete em cadeira de rodas, Esgrima em cadeira de rodas, Rugby em cadeira de rodas, Tenis em cadeira de rodas, Tiro com arco, Tenis, Jiu-jitsu</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>👤, 👤, 👤, 👥, 👥, 👥, 👤, 👤, 👤, 👤, 👤, 👤, 👤, 👤, 👤, 👤, 👤, 👤, 👤, 👤, 👤, 👥, 👥</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>8c21c2bb-eda8-46d9-9c7e-b2143c06a3a5</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3, 1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Atletismo, Bocha, Canoagem velocidade, Ciclismo de estrada, Ciclismo de pista, Equestre, Golbol, Judo, Remo, Natação, Basquete em cadeira de rodas, Jiu-jitsu</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>👥, 👥, 👥, 👥, 👥, 👥, 👥, 👥, 👥, 👥, 👤, 👥</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>5cc7abad-f114-4ad2-a9e8-cea14addbab5</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Atletismo, Badminton, Bocha, Canoagem velocidade, Ciclismo de estrada, Ciclismo de pista, Equestre, Judo, Levantamento de peso, Remo, Tiro, Voleibol paralimpico, Natação, Tenis de mesa, Taekwondo, Triatlo, Basquete em cadeira de rodas, Esgrima em cadeira de rodas, Rugby em cadeira de rodas, Tenis em cadeira de rodas, Tiro com arco, Tenis, Jiu-jitsu</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>👤, 👤, 👤, 👥, 👥, 👥, 👤, 👤, 👤, 👤, 👤, 👤, 👤, 👤, 👤, 👤, 👤, 👤, 👤, 👤, 👤, 👥, 👥</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>691fa339-1148-4e83-a2eb-d74419ecb09a</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Atletismo, Badminton, Bocha, Canoagem velocidade, Ciclismo de estrada, Ciclismo de pista, Equestre, Futebol de cinco, Judo, Levantamento de peso, Remo, Tiro, Natação, Tenis de mesa, Taekwondo, Triatlo, Esgrima em cadeira de rodas, Rugby em cadeira de rodas, Tenis em cadeira de rodas, Tiro com arco, Basquete, Tenis, Jiu-jitsu</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>👥, 👥, 👥, 👥, 👥, 👥, 👥, 👥, 👥, 👥, 👥, 👥, 👥, 👥, 👥, 👥, 👥, 👥, 👥, 👥, 👥, 👥, 👥</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>47d8e089-e2aa-4ccf-ba47-ae5a8a12c9ee</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Atletismo, Badminton, Bocha, Canoagem velocidade, Ciclismo de estrada, Ciclismo de pista, Equestre, Judo, Levantamento de peso, Natação, Tenis de mesa, Taekwondo, Triatlo, Basquete em cadeira de rodas, Esgrima em cadeira de rodas, Rugby em cadeira de rodas, Tenis em cadeira de rodas, Basquete, Tenis, Jiu-jitsu</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>👤, 👥, 👥, 👥, 👥, 👥, 👥, 👥, 👥, 👤, 👤, 👥, 👥, 👤, 👥, 👥, 👥, 👤, 👤, 👥</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>06681e41-b964-46ff-8e66-84cede58023c</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3, 5</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Atletismo, Badminton, Bocha, Canoagem velocidade, Ciclismo de estrada, Ciclismo de pista, Equestre, Futebol de cinco, Golbol, Judo, Levantamento de peso, Natação, Tenis de mesa, Taekwondo, Triatlo, Basquete em cadeira de rodas, Esgrima em cadeira de rodas, Rugby em cadeira de rodas, Tenis em cadeira de rodas, Basquete, Tenis, Jiu-jitsu</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>👤, 👥, 👥, 👥, 👥, 👥, 👥, 👤, 👤, 👤, 👤, 👤, 👥, 👤, 👤, 👤, 👤, 👤, 👤, 👤, 👤, 👥</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>b0d6f27c-8176-4fc4-b732-ab1fe93b06b0</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3, 1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Atletismo, Bocha, Canoagem velocidade, Ciclismo de estrada, Ciclismo de pista, Equestre, Golbol, Judo, Remo, Natação, Basquete em cadeira de rodas, Jiu-jitsu</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>👥, 👥, 👥, 👥, 👥, 👥, 👥, 👥, 👥, 👥, 👤, 👥</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4861b188-bb2c-4339-82ae-7d3659312e3d</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Atletismo, Badminton, Bocha, Canoagem velocidade, Ciclismo de estrada, Ciclismo de pista, Equestre, Judo, Levantamento de peso, Natação, Tenis de mesa, Taekwondo, Triatlo, Basquete em cadeira de rodas, Esgrima em cadeira de rodas, Rugby em cadeira de rodas, Tenis em cadeira de rodas, Basquete, Tenis, Jiu-jitsu</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>👤, 👥, 👥, 👥, 👥, 👥, 👥, 👥, 👥, 👤, 👤, 👥, 👥, 👤, 👥, 👥, 👥, 👤, 👤, 👥</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2acc7761-9117-4247-a645-0a3270aa4639</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Atletismo, Badminton, Bocha, Canoagem velocidade, Ciclismo de estrada, Ciclismo de pista, Equestre, Futebol de cinco, Judo, Levantamento de peso, Remo, Tiro, Natação, Tenis de mesa, Taekwondo, Triatlo, Esgrima em cadeira de rodas, Rugby em cadeira de rodas, Tenis em cadeira de rodas, Tiro com arco, Basquete, Tenis, Jiu-jitsu</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>👥, 👥, 👥, 👥, 👥, 👥, 👥, 👥, 👥, 👥, 👥, 👥, 👥, 👥, 👥, 👥, 👥, 👥, 👥, 👥, 👥, 👥, 👥</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
